--- a/spec_cpu_2017/SPEC CPU 2017 - Anotações.xlsx
+++ b/spec_cpu_2017/SPEC CPU 2017 - Anotações.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="SPEC CPU 2017" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan1" sheetId="3" r:id="rId2"/>
-    <sheet name="xxx" sheetId="2" r:id="rId3"/>
+    <sheet name="tempos" sheetId="3" r:id="rId2"/>
+    <sheet name="comandos exemplos" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t xml:space="preserve">runcpu --config=rubens-try1 SPECspeed2017_int_base </t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>58396 s - 16,22 hs</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>124885 s - 34,69 hs</t>
   </si>
 </sst>
 </file>
@@ -284,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -303,34 +309,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -361,18 +339,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,7 +653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1011,6 +987,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D17:D20"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -1019,14 +1003,6 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D17:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1035,115 +1011,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="11"/>
+    <col min="3" max="4" width="12.140625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>17993</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="11">
         <f>C1/60/60</f>
         <v>4.9980555555555553</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>18438</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D7" si="0">C2/60/60</f>
+      <c r="D2" s="11">
+        <f t="shared" ref="D2:D8" si="0">C2/60/60</f>
         <v>5.121666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>32523</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <f t="shared" si="0"/>
         <v>9.0341666666666658</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>38073</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <f t="shared" si="0"/>
         <v>10.575833333333332</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>65121</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>18.089166666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>79708</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>22.141111111111112</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>58396</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>16.22111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <f>SUM(C1:C7)</f>
-        <v>310252</v>
-      </c>
-      <c r="D8">
-        <f>SUM(D1:D7)</f>
-        <v>86.181111111111107</v>
+      <c r="A8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="10">
+        <v>124885</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>34.690277777777773</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <f>C8/60/60</f>
-        <v>86.181111111111107</v>
+      <c r="A9" s="9"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="11">
+        <f>SUM(C1:C10)</f>
+        <v>435137</v>
+      </c>
+      <c r="D11" s="11">
+        <f>SUM(D1:D10)</f>
+        <v>120.87138888888887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="11">
+        <f>C11/60/60</f>
+        <v>120.8713888888889</v>
       </c>
     </row>
   </sheetData>
